--- a/report/ml_perform_crossval_agg_samp_2022-11-24.xlsx
+++ b/report/ml_perform_crossval_agg_samp_2022-11-24.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.rahmadi\Documents\Git_code\AdamThesis\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B83554-20A8-433C-B0D9-7B97DE3D685C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38615E2B-B8FA-4529-8C68-A8E65128929C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAE" sheetId="2" r:id="rId1"/>
     <sheet name="MSE" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Pearson" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId5"/>
+    <pivotCache cacheId="12" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -94,19 +94,19 @@
     <t>zomato_poi_500</t>
   </si>
   <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
     <t>Row Labels</t>
   </si>
   <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Column Labels</t>
+    <t>Average of avg_mse</t>
   </si>
   <si>
     <t>Average of avg_mae</t>
-  </si>
-  <si>
-    <t>Average of avg_mse</t>
   </si>
   <si>
     <t>Average of avg_pearson</t>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Adam Aulia Rahmadi" refreshedDate="44889.476510069442" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="12" xr:uid="{5D241850-E53B-428E-A2DB-43FB2F8BE993}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Adam Aulia Rahmadi" refreshedDate="44889.490398958333" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="12" xr:uid="{1763C319-0B09-4157-AB12-7D876112B6A0}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:O13" sheet="Sheet1"/>
   </cacheSource>
@@ -217,46 +217,43 @@
       </sharedItems>
     </cacheField>
     <cacheField name="feature_size" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="42" maxValue="61" count="2">
-        <n v="42"/>
-        <n v="61"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="41" maxValue="60"/>
     </cacheField>
     <cacheField name="avg_mae" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.9971483002461702E-2" maxValue="0.16494869222515079"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.9752523420211449E-2" maxValue="0.16533484521210109"/>
     </cacheField>
     <cacheField name="std_mae" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.0834913022629851E-3" maxValue="5.0752751060221934E-3"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.076659906273618E-3" maxValue="4.8485389298188056E-3"/>
     </cacheField>
     <cacheField name="med_mae" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.0136872857767537E-2" maxValue="0.16345699992191709"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.9200074467494803E-2" maxValue="0.1648745347122339"/>
     </cacheField>
     <cacheField name="var_mae" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.173953402079539E-6" maxValue="2.5758417401808582E-5"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.159196553777116E-6" maxValue="2.3508329753968501E-5"/>
     </cacheField>
     <cacheField name="avg_mse" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.6685835203440444E-3" maxValue="4.1492078671900752E-2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.5714267012619426E-3" maxValue="4.1567010427975691E-2"/>
     </cacheField>
     <cacheField name="std_mse" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.8533349205274568E-4" maxValue="2.458068168752612E-3"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.5659431312558289E-4" maxValue="2.1107770229251738E-3"/>
     </cacheField>
     <cacheField name="med_mse" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.6371744929222768E-3" maxValue="4.1559804633908362E-2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.5309970140628639E-3" maxValue="4.1423455535210471E-2"/>
     </cacheField>
     <cacheField name="var_mse" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.484819000975634E-7" maxValue="6.0420991222348222E-6"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.4521778903273111E-8" maxValue="4.4553796405088614E-6"/>
     </cacheField>
     <cacheField name="avg_pearson" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.63805047621426958" maxValue="0.95133777932482921"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.63647149468004227" maxValue="0.95184960781858607"/>
     </cacheField>
     <cacheField name="std_pearson" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.9422277699274208E-3" maxValue="2.4334832818622941E-2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.9355363644441891E-3" maxValue="1.730971112632073E-2"/>
     </cacheField>
     <cacheField name="med_pearson" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.64024446164606141" maxValue="0.94982077294211731"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.64271411065208439" maxValue="0.95220359165265112"/>
     </cacheField>
     <cacheField name="var_pearson" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.5541159789986929E-5" maxValue="5.9218408831032817E-4"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.7463010180858279E-6" maxValue="2.9962609927667168E-4"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -272,212 +269,212 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <n v="5.5734007173012301E-2"/>
-    <n v="2.0570990019801961E-3"/>
-    <n v="5.6617274933088962E-2"/>
-    <n v="4.2316563039479163E-6"/>
-    <n v="7.9735653551759097E-3"/>
-    <n v="4.3046708852739789E-4"/>
-    <n v="8.0305251291540765E-3"/>
-    <n v="1.8530191430525459E-7"/>
-    <n v="0.94153947522522041"/>
-    <n v="4.6902575207719904E-3"/>
-    <n v="0.94131191725710706"/>
-    <n v="2.1998515611158219E-5"/>
+    <n v="41"/>
+    <n v="7.0478335468489889E-2"/>
+    <n v="2.0866625037193141E-3"/>
+    <n v="7.0345236547571591E-2"/>
+    <n v="4.3541604044281562E-6"/>
+    <n v="1.2273379294099881E-2"/>
+    <n v="7.4532152267360726E-4"/>
+    <n v="1.1955123465908671E-2"/>
+    <n v="5.555041721605045E-7"/>
+    <n v="0.90801722571441201"/>
+    <n v="7.2374605374549142E-3"/>
+    <n v="0.908936286964377"/>
+    <n v="5.2380835031217183E-5"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
-    <x v="1"/>
-    <n v="4.9971483002461702E-2"/>
-    <n v="2.2156821881795289E-3"/>
-    <n v="5.0136872857767537E-2"/>
-    <n v="4.9092475590160248E-6"/>
-    <n v="6.8622506239089222E-3"/>
-    <n v="4.7546670008982749E-4"/>
-    <n v="6.8940682103566424E-3"/>
-    <n v="2.2606858289430991E-7"/>
-    <n v="0.94969485803385856"/>
-    <n v="5.2055773595886161E-3"/>
-    <n v="0.94852183067409102"/>
-    <n v="2.7098035646661591E-5"/>
+    <n v="60"/>
+    <n v="4.9752523420211449E-2"/>
+    <n v="1.156635255960047E-3"/>
+    <n v="4.9330266154448063E-2"/>
+    <n v="1.337805115329763E-6"/>
+    <n v="6.6703862522527217E-3"/>
+    <n v="2.5039490389281821E-4"/>
+    <n v="6.7051891874752249E-3"/>
+    <n v="6.2697607895493661E-8"/>
+    <n v="0.95163768999119625"/>
+    <n v="2.3730979429878911E-3"/>
+    <n v="0.95220359165265112"/>
+    <n v="5.6315938470133584E-6"/>
   </r>
   <r>
     <x v="0"/>
     <x v="2"/>
-    <x v="1"/>
-    <n v="5.60927264112673E-2"/>
-    <n v="1.922701949857135E-3"/>
-    <n v="5.5909580765765493E-2"/>
-    <n v="3.6967827879844279E-6"/>
-    <n v="7.5112339144249533E-3"/>
-    <n v="3.8533349205274568E-4"/>
-    <n v="7.5917384493651222E-3"/>
-    <n v="1.484819000975634E-7"/>
-    <n v="0.94476942545521703"/>
-    <n v="3.9422277699274208E-3"/>
-    <n v="0.94556749560905551"/>
-    <n v="1.5541159789986929E-5"/>
+    <n v="60"/>
+    <n v="5.6381302417381172E-2"/>
+    <n v="1.076659906273618E-3"/>
+    <n v="5.6229757803040292E-2"/>
+    <n v="1.159196553777116E-6"/>
+    <n v="7.6221562698347931E-3"/>
+    <n v="1.5659431312558289E-4"/>
+    <n v="7.5937550990439794E-3"/>
+    <n v="2.4521778903273111E-8"/>
+    <n v="0.94467983499081409"/>
+    <n v="1.9355363644441891E-3"/>
+    <n v="0.94493089751026971"/>
+    <n v="3.7463010180858279E-6"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
-    <x v="1"/>
-    <n v="5.0611149992501193E-2"/>
-    <n v="2.7883672236993081E-3"/>
-    <n v="5.1869407948731128E-2"/>
-    <n v="7.7749917742005868E-6"/>
-    <n v="6.6685835203440444E-3"/>
-    <n v="7.5447664611480772E-4"/>
-    <n v="6.6371744929222768E-3"/>
-    <n v="5.6923500953264876E-7"/>
-    <n v="0.95133777932482921"/>
-    <n v="6.318473594833192E-3"/>
-    <n v="0.94982077294211731"/>
-    <n v="3.9923108568604292E-5"/>
+    <n v="60"/>
+    <n v="4.9910441839771433E-2"/>
+    <n v="1.5726777440959799E-3"/>
+    <n v="4.9200074467494803E-2"/>
+    <n v="2.4733152867748199E-6"/>
+    <n v="6.5714267012619426E-3"/>
+    <n v="2.7114603818747829E-4"/>
+    <n v="6.5309970140628639E-3"/>
+    <n v="7.3520174024765452E-8"/>
+    <n v="0.95184960781858607"/>
+    <n v="3.1076017760812038E-3"/>
+    <n v="0.95147899402145097"/>
+    <n v="9.6571887987030516E-6"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
-    <n v="0.16494869222515079"/>
-    <n v="3.2189725620746438E-3"/>
-    <n v="0.16345699992191709"/>
-    <n v="1.0361784355389399E-5"/>
-    <n v="4.1492078671900752E-2"/>
-    <n v="1.5010782965663571E-3"/>
-    <n v="4.1559804633908362E-2"/>
-    <n v="2.253236052422557E-6"/>
-    <n v="0.63805047621426958"/>
-    <n v="8.7302221370973345E-3"/>
-    <n v="0.64024446164606141"/>
-    <n v="7.6216778563064364E-5"/>
+    <n v="41"/>
+    <n v="0.16533484521210109"/>
+    <n v="2.8005682132924178E-3"/>
+    <n v="0.1648745347122339"/>
+    <n v="7.843182317303889E-6"/>
+    <n v="4.1567010427975691E-2"/>
+    <n v="1.1373972601648949E-3"/>
+    <n v="4.1423455535210471E-2"/>
+    <n v="1.2936725274306099E-6"/>
+    <n v="0.63647149468004227"/>
+    <n v="1.1255711576956229E-2"/>
+    <n v="0.64271411065208439"/>
+    <n v="1.2669104310362661E-4"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
-    <x v="1"/>
-    <n v="0.12584543846353499"/>
-    <n v="5.0752751060221934E-3"/>
-    <n v="0.12526852998010821"/>
-    <n v="2.5758417401808582E-5"/>
-    <n v="2.6851327430310771E-2"/>
-    <n v="2.458068168752612E-3"/>
-    <n v="2.7040897706540279E-2"/>
-    <n v="6.0420991222348222E-6"/>
-    <n v="0.79249375415317469"/>
-    <n v="2.329845242362321E-2"/>
-    <n v="0.79019050154156767"/>
-    <n v="5.4281788533583418E-4"/>
+    <n v="60"/>
+    <n v="0.12674637650360901"/>
+    <n v="1.480501638109192E-3"/>
+    <n v="0.12698705242194711"/>
+    <n v="2.191885100444001E-6"/>
+    <n v="2.78768868103066E-2"/>
+    <n v="1.552417420425573E-3"/>
+    <n v="2.7761064572433901E-2"/>
+    <n v="2.4099998472407888E-6"/>
+    <n v="0.78833954627366243"/>
+    <n v="1.469637404978175E-2"/>
+    <n v="0.78830116636484571"/>
+    <n v="2.159834102110984E-4"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
-    <x v="1"/>
-    <n v="0.15802483325029701"/>
-    <n v="3.7022832395973019E-3"/>
-    <n v="0.15729265126680839"/>
-    <n v="1.370690118620309E-5"/>
-    <n v="3.7527857722405057E-2"/>
-    <n v="1.439496184151098E-3"/>
-    <n v="3.7303056524234837E-2"/>
-    <n v="2.0721492641855718E-6"/>
-    <n v="0.6779215582092587"/>
-    <n v="4.9883706708797951E-3"/>
-    <n v="0.67833479946260966"/>
-    <n v="2.4883841950093739E-5"/>
+    <n v="60"/>
+    <n v="0.157516487266261"/>
+    <n v="4.8485389298188056E-3"/>
+    <n v="0.156849989343392"/>
+    <n v="2.3508329753968501E-5"/>
+    <n v="3.7631711329106171E-2"/>
+    <n v="2.1107770229251738E-3"/>
+    <n v="3.7628184297268739E-2"/>
+    <n v="4.4553796405088614E-6"/>
+    <n v="0.6822857197730926"/>
+    <n v="1.094170472786273E-2"/>
+    <n v="0.67527873615047929"/>
+    <n v="1.197209023517336E-4"/>
   </r>
   <r>
     <x v="1"/>
     <x v="3"/>
-    <x v="1"/>
-    <n v="0.1540825273527924"/>
-    <n v="4.2964796466952986E-3"/>
-    <n v="0.1522739894621182"/>
-    <n v="1.8459737354466971E-5"/>
-    <n v="3.6124361109985077E-2"/>
-    <n v="2.251177404950381E-3"/>
-    <n v="3.5635670223608078E-2"/>
-    <n v="5.0677997085591326E-6"/>
-    <n v="0.69382614228409922"/>
-    <n v="2.4334832818622941E-2"/>
-    <n v="0.69551718769011006"/>
-    <n v="5.9218408831032817E-4"/>
+    <n v="60"/>
+    <n v="0.15486877986016981"/>
+    <n v="2.4219228034206238E-3"/>
+    <n v="0.15414460600215329"/>
+    <n v="5.8657100657288143E-6"/>
+    <n v="3.6457728686227639E-2"/>
+    <n v="1.4489859737530969E-3"/>
+    <n v="3.6512086783561513E-2"/>
+    <n v="2.099560352133212E-6"/>
+    <n v="0.68970364113922356"/>
+    <n v="1.459914074244046E-2"/>
+    <n v="0.68823214403472477"/>
+    <n v="2.1313491041758501E-4"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
-    <x v="0"/>
-    <n v="0.12228003647049079"/>
-    <n v="1.667905611408215E-3"/>
-    <n v="0.1215185731178413"/>
-    <n v="2.781909128567012E-6"/>
-    <n v="2.2619932497553102E-2"/>
-    <n v="8.331378130906436E-4"/>
-    <n v="2.2283149343037229E-2"/>
-    <n v="6.9411861560146013E-7"/>
-    <n v="0.82887490633733019"/>
-    <n v="1.3554140913791859E-2"/>
-    <n v="0.83314918865847887"/>
-    <n v="1.837147359109264E-4"/>
+    <n v="41"/>
+    <n v="0.13297881940860021"/>
+    <n v="1.9550837378244121E-3"/>
+    <n v="0.13370907038888319"/>
+    <n v="3.8223524219054741E-6"/>
+    <n v="2.769931384146394E-2"/>
+    <n v="1.0537950273988531E-3"/>
+    <n v="2.784001028753099E-2"/>
+    <n v="1.11048395977055E-6"/>
+    <n v="0.77926267209284705"/>
+    <n v="1.730971112632073E-2"/>
+    <n v="0.78643766313583452"/>
+    <n v="2.9962609927667168E-4"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
-    <x v="1"/>
-    <n v="0.1320887965955552"/>
-    <n v="1.0834913022629851E-3"/>
-    <n v="0.13256322917953089"/>
-    <n v="1.173953402079539E-6"/>
-    <n v="2.5438049723796891E-2"/>
-    <n v="5.2909749597191801E-4"/>
-    <n v="2.555409700105167E-2"/>
-    <n v="2.799441602437537E-7"/>
-    <n v="0.80299594119437112"/>
-    <n v="1.0321429082410811E-2"/>
-    <n v="0.80389534908269944"/>
-    <n v="1.0653189830323581E-4"/>
+    <n v="60"/>
+    <n v="0.13464229990560039"/>
+    <n v="2.8754870215240758E-3"/>
+    <n v="0.1345842015523942"/>
+    <n v="8.2684256109534032E-6"/>
+    <n v="2.6800897586672399E-2"/>
+    <n v="1.258065324168935E-3"/>
+    <n v="2.6796005712854652E-2"/>
+    <n v="1.5827283598762871E-6"/>
+    <n v="0.79094479361595127"/>
+    <n v="8.5105862689852617E-3"/>
+    <n v="0.79098471486655964"/>
+    <n v="7.2430078641840486E-5"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
-    <x v="1"/>
-    <n v="0.1105547671213923"/>
-    <n v="3.2564343327523759E-3"/>
-    <n v="0.1104263045794063"/>
-    <n v="1.0604364563528421E-5"/>
-    <n v="1.9221480636138391E-2"/>
-    <n v="1.169549070941134E-3"/>
-    <n v="1.9525624521656269E-2"/>
-    <n v="1.36784502933927E-6"/>
-    <n v="0.85377200900393679"/>
-    <n v="1.0680128542619819E-2"/>
-    <n v="0.84883609507876456"/>
-    <n v="1.140651456868826E-4"/>
+    <n v="60"/>
+    <n v="0.1146859341460239"/>
+    <n v="2.7194944561234639E-3"/>
+    <n v="0.1144406045485279"/>
+    <n v="7.3956500968862552E-6"/>
+    <n v="2.0623857568206189E-2"/>
+    <n v="9.3530271331467463E-4"/>
+    <n v="2.0710467108695861E-2"/>
+    <n v="8.7479116553379244E-7"/>
+    <n v="0.84454166576420797"/>
+    <n v="3.1910699088909772E-3"/>
+    <n v="0.84552630305842214"/>
+    <n v="1.018292716342947E-5"/>
   </r>
   <r>
     <x v="2"/>
     <x v="3"/>
-    <x v="1"/>
-    <n v="8.8966097568935629E-2"/>
-    <n v="2.681295494544197E-3"/>
-    <n v="8.95035277458818E-2"/>
-    <n v="7.189345529063011E-6"/>
-    <n v="1.3673679053537301E-2"/>
-    <n v="7.0716564354427304E-4"/>
-    <n v="1.3894828702096551E-2"/>
-    <n v="5.0008324740938583E-7"/>
-    <n v="0.89688701906927248"/>
-    <n v="8.3719098437813003E-3"/>
-    <n v="0.89820775439617506"/>
-    <n v="7.008887443240223E-5"/>
+    <n v="60"/>
+    <n v="9.1649714067039492E-2"/>
+    <n v="2.6923962932912421E-3"/>
+    <n v="9.3170610538651694E-2"/>
+    <n v="7.2489978001284204E-6"/>
+    <n v="1.414065259833381E-2"/>
+    <n v="6.8078589017370704E-4"/>
+    <n v="1.436297559981845E-2"/>
+    <n v="4.634694282596066E-7"/>
+    <n v="0.89353384216798892"/>
+    <n v="7.197612550242192E-3"/>
+    <n v="0.89153490711947492"/>
+    <n v="5.1805626423403908E-5"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4DCB05B5-9EB1-421D-BFF8-522CF6186154}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B02627E2-884A-4189-BA2F-C61227D09E92}" name="PivotTable4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisCol" showAll="0">
@@ -549,7 +546,7 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of avg_mae" fld="3" subtotal="average" baseField="1" baseItem="0"/>
+    <dataField name="Average of avg_mae" fld="3" subtotal="average" baseField="1" baseItem="2"/>
   </dataFields>
   <conditionalFormats count="3">
     <conditionalFormat priority="3">
@@ -626,7 +623,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BDD8F7CC-C279-4BC6-BC4E-2C84874D5F4D}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D10B1943-C084-4F3D-9285-8A2ACBDCF707}" name="PivotTable5" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisCol" showAll="0">
@@ -646,13 +643,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -781,7 +772,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3B96E23A-5326-4EE7-AD8A-F196E1EFD8B0}" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C484294C-2E50-4F27-A280-3923FAA1A852}" name="PivotTable6" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisCol" showAll="0">
@@ -856,7 +847,7 @@
     <dataField name="Average of avg_pearson" fld="11" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="4">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -876,7 +867,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="2">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -1249,11 +1240,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B462B11-207F-4925-B76A-C9ECBECF42B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C198671-C84E-4348-A2AD-3D61CCEE303B}">
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1265,15 +1256,15 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -1293,16 +1284,16 @@
         <v>18</v>
       </c>
       <c r="B5" s="4">
-        <v>5.5734007173012301E-2</v>
+        <v>7.0478335468489889E-2</v>
       </c>
       <c r="C5" s="4">
-        <v>0.16494869222515079</v>
+        <v>0.16533484521210109</v>
       </c>
       <c r="D5" s="4">
-        <v>0.12228003647049079</v>
+        <v>0.13297881940860021</v>
       </c>
       <c r="E5" s="4">
-        <v>0.11432091195621796</v>
+        <v>0.12293066669639707</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1310,16 +1301,16 @@
         <v>19</v>
       </c>
       <c r="B6" s="4">
-        <v>4.9971483002461702E-2</v>
+        <v>4.9752523420211449E-2</v>
       </c>
       <c r="C6" s="4">
-        <v>0.12584543846353499</v>
+        <v>0.12674637650360901</v>
       </c>
       <c r="D6" s="4">
-        <v>0.1320887965955552</v>
+        <v>0.13464229990560039</v>
       </c>
       <c r="E6" s="4">
-        <v>0.10263523935385062</v>
+        <v>0.10371373327647361</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1327,16 +1318,16 @@
         <v>20</v>
       </c>
       <c r="B7" s="4">
-        <v>5.60927264112673E-2</v>
+        <v>5.6381302417381172E-2</v>
       </c>
       <c r="C7" s="4">
-        <v>0.15802483325029701</v>
+        <v>0.157516487266261</v>
       </c>
       <c r="D7" s="4">
-        <v>0.1105547671213923</v>
+        <v>0.1146859341460239</v>
       </c>
       <c r="E7" s="4">
-        <v>0.1082241089276522</v>
+        <v>0.10952790794322202</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1344,16 +1335,16 @@
         <v>21</v>
       </c>
       <c r="B8" s="4">
-        <v>5.0611149992501193E-2</v>
+        <v>4.9910441839771433E-2</v>
       </c>
       <c r="C8" s="4">
-        <v>0.1540825273527924</v>
+        <v>0.15486877986016981</v>
       </c>
       <c r="D8" s="4">
-        <v>8.8966097568935629E-2</v>
+        <v>9.1649714067039492E-2</v>
       </c>
       <c r="E8" s="4">
-        <v>9.7886591638076406E-2</v>
+        <v>9.8809645255660231E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1361,16 +1352,16 @@
         <v>23</v>
       </c>
       <c r="B9" s="4">
-        <v>5.3102341644810626E-2</v>
+        <v>5.6630650786463482E-2</v>
       </c>
       <c r="C9" s="4">
-        <v>0.15072537282294379</v>
+        <v>0.15111662221053523</v>
       </c>
       <c r="D9" s="4">
-        <v>0.11347242443909347</v>
+        <v>0.118489191881816</v>
       </c>
       <c r="E9" s="4">
-        <v>0.10576671296894931</v>
+        <v>0.10874548829293823</v>
       </c>
     </row>
   </sheetData>
@@ -1415,11 +1406,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FEB2DF-D502-4EBE-8016-122C830937FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AB7067-E048-4905-8783-3B240B2B2F92}">
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1431,15 +1422,15 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -1459,16 +1450,16 @@
         <v>18</v>
       </c>
       <c r="B5" s="4">
-        <v>7.9735653551759097E-3</v>
+        <v>1.2273379294099881E-2</v>
       </c>
       <c r="C5" s="4">
-        <v>4.1492078671900752E-2</v>
+        <v>4.1567010427975691E-2</v>
       </c>
       <c r="D5" s="4">
-        <v>2.2619932497553102E-2</v>
+        <v>2.769931384146394E-2</v>
       </c>
       <c r="E5" s="4">
-        <v>2.4028525508209924E-2</v>
+        <v>2.7179901187846505E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1476,16 +1467,16 @@
         <v>19</v>
       </c>
       <c r="B6" s="4">
-        <v>6.8622506239089222E-3</v>
+        <v>6.6703862522527217E-3</v>
       </c>
       <c r="C6" s="4">
-        <v>2.6851327430310771E-2</v>
+        <v>2.78768868103066E-2</v>
       </c>
       <c r="D6" s="4">
-        <v>2.5438049723796891E-2</v>
+        <v>2.6800897586672399E-2</v>
       </c>
       <c r="E6" s="4">
-        <v>1.9717209259338859E-2</v>
+        <v>2.0449390216410571E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1493,16 +1484,16 @@
         <v>20</v>
       </c>
       <c r="B7" s="4">
-        <v>7.5112339144249533E-3</v>
+        <v>7.6221562698347931E-3</v>
       </c>
       <c r="C7" s="4">
-        <v>3.7527857722405057E-2</v>
+        <v>3.7631711329106171E-2</v>
       </c>
       <c r="D7" s="4">
-        <v>1.9221480636138391E-2</v>
+        <v>2.0623857568206189E-2</v>
       </c>
       <c r="E7" s="4">
-        <v>2.1420190757656134E-2</v>
+        <v>2.1959241722382384E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1510,16 +1501,16 @@
         <v>21</v>
       </c>
       <c r="B8" s="4">
-        <v>6.6685835203440444E-3</v>
+        <v>6.5714267012619426E-3</v>
       </c>
       <c r="C8" s="4">
-        <v>3.6124361109985077E-2</v>
+        <v>3.6457728686227639E-2</v>
       </c>
       <c r="D8" s="4">
-        <v>1.3673679053537301E-2</v>
+        <v>1.414065259833381E-2</v>
       </c>
       <c r="E8" s="4">
-        <v>1.8822207894622141E-2</v>
+        <v>1.9056602661941129E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1527,16 +1518,16 @@
         <v>23</v>
       </c>
       <c r="B9" s="4">
-        <v>7.253908353463458E-3</v>
+        <v>8.2843371293623343E-3</v>
       </c>
       <c r="C9" s="4">
-        <v>3.5498906233650415E-2</v>
+        <v>3.5883334313404028E-2</v>
       </c>
       <c r="D9" s="4">
-        <v>2.0238285477756419E-2</v>
+        <v>2.2316180398669082E-2</v>
       </c>
       <c r="E9" s="4">
-        <v>2.099703335495676E-2</v>
+        <v>2.2161283947145147E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1581,11 +1572,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2274A9-4607-483E-B472-7AF86956A9F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5141B3C2-4EF3-4E0A-A995-6605ADC5FDE9}">
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1593,6 +1584,7 @@
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1600,12 +1592,12 @@
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -1625,16 +1617,16 @@
         <v>18</v>
       </c>
       <c r="B5" s="4">
-        <v>0.94153947522522041</v>
+        <v>0.90801722571441201</v>
       </c>
       <c r="C5" s="4">
-        <v>0.63805047621426958</v>
+        <v>0.63647149468004227</v>
       </c>
       <c r="D5" s="4">
-        <v>0.82887490633733019</v>
+        <v>0.77926267209284705</v>
       </c>
       <c r="E5" s="4">
-        <v>0.80282161925894002</v>
+        <v>0.774583797495767</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1642,16 +1634,16 @@
         <v>19</v>
       </c>
       <c r="B6" s="4">
-        <v>0.94969485803385856</v>
+        <v>0.95163768999119625</v>
       </c>
       <c r="C6" s="4">
-        <v>0.79249375415317469</v>
+        <v>0.78833954627366243</v>
       </c>
       <c r="D6" s="4">
-        <v>0.80299594119437112</v>
+        <v>0.79094479361595127</v>
       </c>
       <c r="E6" s="4">
-        <v>0.84839485112713475</v>
+        <v>0.84364067662693676</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1659,16 +1651,16 @@
         <v>20</v>
       </c>
       <c r="B7" s="4">
-        <v>0.94476942545521703</v>
+        <v>0.94467983499081409</v>
       </c>
       <c r="C7" s="4">
-        <v>0.6779215582092587</v>
+        <v>0.6822857197730926</v>
       </c>
       <c r="D7" s="4">
-        <v>0.85377200900393679</v>
+        <v>0.84454166576420797</v>
       </c>
       <c r="E7" s="4">
-        <v>0.82548766422280417</v>
+        <v>0.82383574017603822</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1676,16 +1668,16 @@
         <v>21</v>
       </c>
       <c r="B8" s="4">
-        <v>0.95133777932482921</v>
+        <v>0.95184960781858607</v>
       </c>
       <c r="C8" s="4">
-        <v>0.69382614228409922</v>
+        <v>0.68970364113922356</v>
       </c>
       <c r="D8" s="4">
-        <v>0.89688701906927248</v>
+        <v>0.89353384216798892</v>
       </c>
       <c r="E8" s="4">
-        <v>0.84735031355940027</v>
+        <v>0.84502903037526611</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1693,21 +1685,21 @@
         <v>23</v>
       </c>
       <c r="B9" s="4">
-        <v>0.94683538450978122</v>
+        <v>0.93904608962875202</v>
       </c>
       <c r="C9" s="4">
-        <v>0.70057298271520052</v>
+        <v>0.69920010046650527</v>
       </c>
       <c r="D9" s="4">
-        <v>0.84563246890122767</v>
+        <v>0.82707074341024878</v>
       </c>
       <c r="E9" s="4">
-        <v>0.83101361204206992</v>
+        <v>0.82177231116850213</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting pivot="1" sqref="B5:B8">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1719,7 +1711,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="C5:C8">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1809,43 +1801,43 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2">
-        <v>5.5734007173012301E-2</v>
+        <v>7.0478335468489889E-2</v>
       </c>
       <c r="E2">
-        <v>2.0570990019801961E-3</v>
+        <v>2.0866625037193141E-3</v>
       </c>
       <c r="F2">
-        <v>5.6617274933088962E-2</v>
+        <v>7.0345236547571591E-2</v>
       </c>
       <c r="G2">
-        <v>4.2316563039479163E-6</v>
+        <v>4.3541604044281562E-6</v>
       </c>
       <c r="H2">
-        <v>7.9735653551759097E-3</v>
+        <v>1.2273379294099881E-2</v>
       </c>
       <c r="I2">
-        <v>4.3046708852739789E-4</v>
+        <v>7.4532152267360726E-4</v>
       </c>
       <c r="J2">
-        <v>8.0305251291540765E-3</v>
+        <v>1.1955123465908671E-2</v>
       </c>
       <c r="K2">
-        <v>1.8530191430525459E-7</v>
+        <v>5.555041721605045E-7</v>
       </c>
       <c r="L2">
-        <v>0.94153947522522041</v>
+        <v>0.90801722571441201</v>
       </c>
       <c r="M2">
-        <v>4.6902575207719904E-3</v>
+        <v>7.2374605374549142E-3</v>
       </c>
       <c r="N2">
-        <v>0.94131191725710706</v>
+        <v>0.908936286964377</v>
       </c>
       <c r="O2">
-        <v>2.1998515611158219E-5</v>
+        <v>5.2380835031217183E-5</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -1856,43 +1848,43 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3">
-        <v>4.9971483002461702E-2</v>
+        <v>4.9752523420211449E-2</v>
       </c>
       <c r="E3">
-        <v>2.2156821881795289E-3</v>
+        <v>1.156635255960047E-3</v>
       </c>
       <c r="F3">
-        <v>5.0136872857767537E-2</v>
+        <v>4.9330266154448063E-2</v>
       </c>
       <c r="G3">
-        <v>4.9092475590160248E-6</v>
+        <v>1.337805115329763E-6</v>
       </c>
       <c r="H3">
-        <v>6.8622506239089222E-3</v>
+        <v>6.6703862522527217E-3</v>
       </c>
       <c r="I3">
-        <v>4.7546670008982749E-4</v>
+        <v>2.5039490389281821E-4</v>
       </c>
       <c r="J3">
-        <v>6.8940682103566424E-3</v>
+        <v>6.7051891874752249E-3</v>
       </c>
       <c r="K3">
-        <v>2.2606858289430991E-7</v>
+        <v>6.2697607895493661E-8</v>
       </c>
       <c r="L3">
-        <v>0.94969485803385856</v>
+        <v>0.95163768999119625</v>
       </c>
       <c r="M3">
-        <v>5.2055773595886161E-3</v>
+        <v>2.3730979429878911E-3</v>
       </c>
       <c r="N3">
-        <v>0.94852183067409102</v>
+        <v>0.95220359165265112</v>
       </c>
       <c r="O3">
-        <v>2.7098035646661591E-5</v>
+        <v>5.6315938470133584E-6</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -1903,43 +1895,43 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4">
-        <v>5.60927264112673E-2</v>
+        <v>5.6381302417381172E-2</v>
       </c>
       <c r="E4">
-        <v>1.922701949857135E-3</v>
+        <v>1.076659906273618E-3</v>
       </c>
       <c r="F4">
-        <v>5.5909580765765493E-2</v>
+        <v>5.6229757803040292E-2</v>
       </c>
       <c r="G4">
-        <v>3.6967827879844279E-6</v>
+        <v>1.159196553777116E-6</v>
       </c>
       <c r="H4">
-        <v>7.5112339144249533E-3</v>
+        <v>7.6221562698347931E-3</v>
       </c>
       <c r="I4">
-        <v>3.8533349205274568E-4</v>
+        <v>1.5659431312558289E-4</v>
       </c>
       <c r="J4">
-        <v>7.5917384493651222E-3</v>
+        <v>7.5937550990439794E-3</v>
       </c>
       <c r="K4">
-        <v>1.484819000975634E-7</v>
+        <v>2.4521778903273111E-8</v>
       </c>
       <c r="L4">
-        <v>0.94476942545521703</v>
+        <v>0.94467983499081409</v>
       </c>
       <c r="M4">
-        <v>3.9422277699274208E-3</v>
+        <v>1.9355363644441891E-3</v>
       </c>
       <c r="N4">
-        <v>0.94556749560905551</v>
+        <v>0.94493089751026971</v>
       </c>
       <c r="O4">
-        <v>1.5541159789986929E-5</v>
+        <v>3.7463010180858279E-6</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -1950,43 +1942,43 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5">
-        <v>5.0611149992501193E-2</v>
+        <v>4.9910441839771433E-2</v>
       </c>
       <c r="E5">
-        <v>2.7883672236993081E-3</v>
+        <v>1.5726777440959799E-3</v>
       </c>
       <c r="F5">
-        <v>5.1869407948731128E-2</v>
+        <v>4.9200074467494803E-2</v>
       </c>
       <c r="G5">
-        <v>7.7749917742005868E-6</v>
+        <v>2.4733152867748199E-6</v>
       </c>
       <c r="H5">
-        <v>6.6685835203440444E-3</v>
+        <v>6.5714267012619426E-3</v>
       </c>
       <c r="I5">
-        <v>7.5447664611480772E-4</v>
+        <v>2.7114603818747829E-4</v>
       </c>
       <c r="J5">
-        <v>6.6371744929222768E-3</v>
+        <v>6.5309970140628639E-3</v>
       </c>
       <c r="K5">
-        <v>5.6923500953264876E-7</v>
+        <v>7.3520174024765452E-8</v>
       </c>
       <c r="L5">
-        <v>0.95133777932482921</v>
+        <v>0.95184960781858607</v>
       </c>
       <c r="M5">
-        <v>6.318473594833192E-3</v>
+        <v>3.1076017760812038E-3</v>
       </c>
       <c r="N5">
-        <v>0.94982077294211731</v>
+        <v>0.95147899402145097</v>
       </c>
       <c r="O5">
-        <v>3.9923108568604292E-5</v>
+        <v>9.6571887987030516E-6</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -1997,43 +1989,43 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6">
-        <v>0.16494869222515079</v>
+        <v>0.16533484521210109</v>
       </c>
       <c r="E6">
-        <v>3.2189725620746438E-3</v>
+        <v>2.8005682132924178E-3</v>
       </c>
       <c r="F6">
-        <v>0.16345699992191709</v>
+        <v>0.1648745347122339</v>
       </c>
       <c r="G6">
-        <v>1.0361784355389399E-5</v>
+        <v>7.843182317303889E-6</v>
       </c>
       <c r="H6">
-        <v>4.1492078671900752E-2</v>
+        <v>4.1567010427975691E-2</v>
       </c>
       <c r="I6">
-        <v>1.5010782965663571E-3</v>
+        <v>1.1373972601648949E-3</v>
       </c>
       <c r="J6">
-        <v>4.1559804633908362E-2</v>
+        <v>4.1423455535210471E-2</v>
       </c>
       <c r="K6">
-        <v>2.253236052422557E-6</v>
+        <v>1.2936725274306099E-6</v>
       </c>
       <c r="L6">
-        <v>0.63805047621426958</v>
+        <v>0.63647149468004227</v>
       </c>
       <c r="M6">
-        <v>8.7302221370973345E-3</v>
+        <v>1.1255711576956229E-2</v>
       </c>
       <c r="N6">
-        <v>0.64024446164606141</v>
+        <v>0.64271411065208439</v>
       </c>
       <c r="O6">
-        <v>7.6216778563064364E-5</v>
+        <v>1.2669104310362661E-4</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -2044,43 +2036,43 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>0.12584543846353499</v>
+        <v>0.12674637650360901</v>
       </c>
       <c r="E7">
-        <v>5.0752751060221934E-3</v>
+        <v>1.480501638109192E-3</v>
       </c>
       <c r="F7">
-        <v>0.12526852998010821</v>
+        <v>0.12698705242194711</v>
       </c>
       <c r="G7">
-        <v>2.5758417401808582E-5</v>
+        <v>2.191885100444001E-6</v>
       </c>
       <c r="H7">
-        <v>2.6851327430310771E-2</v>
+        <v>2.78768868103066E-2</v>
       </c>
       <c r="I7">
-        <v>2.458068168752612E-3</v>
+        <v>1.552417420425573E-3</v>
       </c>
       <c r="J7">
-        <v>2.7040897706540279E-2</v>
+        <v>2.7761064572433901E-2</v>
       </c>
       <c r="K7">
-        <v>6.0420991222348222E-6</v>
+        <v>2.4099998472407888E-6</v>
       </c>
       <c r="L7">
-        <v>0.79249375415317469</v>
+        <v>0.78833954627366243</v>
       </c>
       <c r="M7">
-        <v>2.329845242362321E-2</v>
+        <v>1.469637404978175E-2</v>
       </c>
       <c r="N7">
-        <v>0.79019050154156767</v>
+        <v>0.78830116636484571</v>
       </c>
       <c r="O7">
-        <v>5.4281788533583418E-4</v>
+        <v>2.159834102110984E-4</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -2091,43 +2083,43 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8">
-        <v>0.15802483325029701</v>
+        <v>0.157516487266261</v>
       </c>
       <c r="E8">
-        <v>3.7022832395973019E-3</v>
+        <v>4.8485389298188056E-3</v>
       </c>
       <c r="F8">
-        <v>0.15729265126680839</v>
+        <v>0.156849989343392</v>
       </c>
       <c r="G8">
-        <v>1.370690118620309E-5</v>
+        <v>2.3508329753968501E-5</v>
       </c>
       <c r="H8">
-        <v>3.7527857722405057E-2</v>
+        <v>3.7631711329106171E-2</v>
       </c>
       <c r="I8">
-        <v>1.439496184151098E-3</v>
+        <v>2.1107770229251738E-3</v>
       </c>
       <c r="J8">
-        <v>3.7303056524234837E-2</v>
+        <v>3.7628184297268739E-2</v>
       </c>
       <c r="K8">
-        <v>2.0721492641855718E-6</v>
+        <v>4.4553796405088614E-6</v>
       </c>
       <c r="L8">
-        <v>0.6779215582092587</v>
+        <v>0.6822857197730926</v>
       </c>
       <c r="M8">
-        <v>4.9883706708797951E-3</v>
+        <v>1.094170472786273E-2</v>
       </c>
       <c r="N8">
-        <v>0.67833479946260966</v>
+        <v>0.67527873615047929</v>
       </c>
       <c r="O8">
-        <v>2.4883841950093739E-5</v>
+        <v>1.197209023517336E-4</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -2138,43 +2130,43 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9">
-        <v>0.1540825273527924</v>
+        <v>0.15486877986016981</v>
       </c>
       <c r="E9">
-        <v>4.2964796466952986E-3</v>
+        <v>2.4219228034206238E-3</v>
       </c>
       <c r="F9">
-        <v>0.1522739894621182</v>
+        <v>0.15414460600215329</v>
       </c>
       <c r="G9">
-        <v>1.8459737354466971E-5</v>
+        <v>5.8657100657288143E-6</v>
       </c>
       <c r="H9">
-        <v>3.6124361109985077E-2</v>
+        <v>3.6457728686227639E-2</v>
       </c>
       <c r="I9">
-        <v>2.251177404950381E-3</v>
+        <v>1.4489859737530969E-3</v>
       </c>
       <c r="J9">
-        <v>3.5635670223608078E-2</v>
+        <v>3.6512086783561513E-2</v>
       </c>
       <c r="K9">
-        <v>5.0677997085591326E-6</v>
+        <v>2.099560352133212E-6</v>
       </c>
       <c r="L9">
-        <v>0.69382614228409922</v>
+        <v>0.68970364113922356</v>
       </c>
       <c r="M9">
-        <v>2.4334832818622941E-2</v>
+        <v>1.459914074244046E-2</v>
       </c>
       <c r="N9">
-        <v>0.69551718769011006</v>
+        <v>0.68823214403472477</v>
       </c>
       <c r="O9">
-        <v>5.9218408831032817E-4</v>
+        <v>2.1313491041758501E-4</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -2185,43 +2177,43 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10">
-        <v>0.12228003647049079</v>
+        <v>0.13297881940860021</v>
       </c>
       <c r="E10">
-        <v>1.667905611408215E-3</v>
+        <v>1.9550837378244121E-3</v>
       </c>
       <c r="F10">
-        <v>0.1215185731178413</v>
+        <v>0.13370907038888319</v>
       </c>
       <c r="G10">
-        <v>2.781909128567012E-6</v>
+        <v>3.8223524219054741E-6</v>
       </c>
       <c r="H10">
-        <v>2.2619932497553102E-2</v>
+        <v>2.769931384146394E-2</v>
       </c>
       <c r="I10">
-        <v>8.331378130906436E-4</v>
+        <v>1.0537950273988531E-3</v>
       </c>
       <c r="J10">
-        <v>2.2283149343037229E-2</v>
+        <v>2.784001028753099E-2</v>
       </c>
       <c r="K10">
-        <v>6.9411861560146013E-7</v>
+        <v>1.11048395977055E-6</v>
       </c>
       <c r="L10">
-        <v>0.82887490633733019</v>
+        <v>0.77926267209284705</v>
       </c>
       <c r="M10">
-        <v>1.3554140913791859E-2</v>
+        <v>1.730971112632073E-2</v>
       </c>
       <c r="N10">
-        <v>0.83314918865847887</v>
+        <v>0.78643766313583452</v>
       </c>
       <c r="O10">
-        <v>1.837147359109264E-4</v>
+        <v>2.9962609927667168E-4</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -2232,43 +2224,43 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11">
-        <v>0.1320887965955552</v>
+        <v>0.13464229990560039</v>
       </c>
       <c r="E11">
-        <v>1.0834913022629851E-3</v>
+        <v>2.8754870215240758E-3</v>
       </c>
       <c r="F11">
-        <v>0.13256322917953089</v>
+        <v>0.1345842015523942</v>
       </c>
       <c r="G11">
-        <v>1.173953402079539E-6</v>
+        <v>8.2684256109534032E-6</v>
       </c>
       <c r="H11">
-        <v>2.5438049723796891E-2</v>
+        <v>2.6800897586672399E-2</v>
       </c>
       <c r="I11">
-        <v>5.2909749597191801E-4</v>
+        <v>1.258065324168935E-3</v>
       </c>
       <c r="J11">
-        <v>2.555409700105167E-2</v>
+        <v>2.6796005712854652E-2</v>
       </c>
       <c r="K11">
-        <v>2.799441602437537E-7</v>
+        <v>1.5827283598762871E-6</v>
       </c>
       <c r="L11">
-        <v>0.80299594119437112</v>
+        <v>0.79094479361595127</v>
       </c>
       <c r="M11">
-        <v>1.0321429082410811E-2</v>
+        <v>8.5105862689852617E-3</v>
       </c>
       <c r="N11">
-        <v>0.80389534908269944</v>
+        <v>0.79098471486655964</v>
       </c>
       <c r="O11">
-        <v>1.0653189830323581E-4</v>
+        <v>7.2430078641840486E-5</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -2279,43 +2271,43 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12">
-        <v>0.1105547671213923</v>
+        <v>0.1146859341460239</v>
       </c>
       <c r="E12">
-        <v>3.2564343327523759E-3</v>
+        <v>2.7194944561234639E-3</v>
       </c>
       <c r="F12">
-        <v>0.1104263045794063</v>
+        <v>0.1144406045485279</v>
       </c>
       <c r="G12">
-        <v>1.0604364563528421E-5</v>
+        <v>7.3956500968862552E-6</v>
       </c>
       <c r="H12">
-        <v>1.9221480636138391E-2</v>
+        <v>2.0623857568206189E-2</v>
       </c>
       <c r="I12">
-        <v>1.169549070941134E-3</v>
+        <v>9.3530271331467463E-4</v>
       </c>
       <c r="J12">
-        <v>1.9525624521656269E-2</v>
+        <v>2.0710467108695861E-2</v>
       </c>
       <c r="K12">
-        <v>1.36784502933927E-6</v>
+        <v>8.7479116553379244E-7</v>
       </c>
       <c r="L12">
-        <v>0.85377200900393679</v>
+        <v>0.84454166576420797</v>
       </c>
       <c r="M12">
-        <v>1.0680128542619819E-2</v>
+        <v>3.1910699088909772E-3</v>
       </c>
       <c r="N12">
-        <v>0.84883609507876456</v>
+        <v>0.84552630305842214</v>
       </c>
       <c r="O12">
-        <v>1.140651456868826E-4</v>
+        <v>1.018292716342947E-5</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -2326,43 +2318,43 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13">
-        <v>8.8966097568935629E-2</v>
+        <v>9.1649714067039492E-2</v>
       </c>
       <c r="E13">
-        <v>2.681295494544197E-3</v>
+        <v>2.6923962932912421E-3</v>
       </c>
       <c r="F13">
-        <v>8.95035277458818E-2</v>
+        <v>9.3170610538651694E-2</v>
       </c>
       <c r="G13">
-        <v>7.189345529063011E-6</v>
+        <v>7.2489978001284204E-6</v>
       </c>
       <c r="H13">
-        <v>1.3673679053537301E-2</v>
+        <v>1.414065259833381E-2</v>
       </c>
       <c r="I13">
-        <v>7.0716564354427304E-4</v>
+        <v>6.8078589017370704E-4</v>
       </c>
       <c r="J13">
-        <v>1.3894828702096551E-2</v>
+        <v>1.436297559981845E-2</v>
       </c>
       <c r="K13">
-        <v>5.0008324740938583E-7</v>
+        <v>4.634694282596066E-7</v>
       </c>
       <c r="L13">
-        <v>0.89688701906927248</v>
+        <v>0.89353384216798892</v>
       </c>
       <c r="M13">
-        <v>8.3719098437813003E-3</v>
+        <v>7.197612550242192E-3</v>
       </c>
       <c r="N13">
-        <v>0.89820775439617506</v>
+        <v>0.89153490711947492</v>
       </c>
       <c r="O13">
-        <v>7.008887443240223E-5</v>
+        <v>5.1805626423403908E-5</v>
       </c>
     </row>
   </sheetData>

--- a/report/ml_perform_crossval_agg_samp_2022-11-24.xlsx
+++ b/report/ml_perform_crossval_agg_samp_2022-11-24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.rahmadi\Documents\Git_code\AdamThesis\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38615E2B-B8FA-4529-8C68-A8E65128929C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8635B671-1B85-4A79-8005-EF5959E52548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId5"/>
+    <pivotCache cacheId="24" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -217,7 +217,10 @@
       </sharedItems>
     </cacheField>
     <cacheField name="feature_size" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="41" maxValue="60"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="41" maxValue="60" count="2">
+        <n v="41"/>
+        <n v="60"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="avg_mae" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.9752523420211449E-2" maxValue="0.16533484521210109"/>
@@ -269,7 +272,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="41"/>
+    <x v="0"/>
     <n v="7.0478335468489889E-2"/>
     <n v="2.0866625037193141E-3"/>
     <n v="7.0345236547571591E-2"/>
@@ -286,7 +289,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="60"/>
+    <x v="1"/>
     <n v="4.9752523420211449E-2"/>
     <n v="1.156635255960047E-3"/>
     <n v="4.9330266154448063E-2"/>
@@ -303,7 +306,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="60"/>
+    <x v="1"/>
     <n v="5.6381302417381172E-2"/>
     <n v="1.076659906273618E-3"/>
     <n v="5.6229757803040292E-2"/>
@@ -320,7 +323,7 @@
   <r>
     <x v="0"/>
     <x v="3"/>
-    <n v="60"/>
+    <x v="1"/>
     <n v="4.9910441839771433E-2"/>
     <n v="1.5726777440959799E-3"/>
     <n v="4.9200074467494803E-2"/>
@@ -337,7 +340,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="41"/>
+    <x v="0"/>
     <n v="0.16533484521210109"/>
     <n v="2.8005682132924178E-3"/>
     <n v="0.1648745347122339"/>
@@ -354,7 +357,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="60"/>
+    <x v="1"/>
     <n v="0.12674637650360901"/>
     <n v="1.480501638109192E-3"/>
     <n v="0.12698705242194711"/>
@@ -371,7 +374,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="60"/>
+    <x v="1"/>
     <n v="0.157516487266261"/>
     <n v="4.8485389298188056E-3"/>
     <n v="0.156849989343392"/>
@@ -388,7 +391,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <n v="60"/>
+    <x v="1"/>
     <n v="0.15486877986016981"/>
     <n v="2.4219228034206238E-3"/>
     <n v="0.15414460600215329"/>
@@ -405,7 +408,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="41"/>
+    <x v="0"/>
     <n v="0.13297881940860021"/>
     <n v="1.9550837378244121E-3"/>
     <n v="0.13370907038888319"/>
@@ -422,7 +425,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="60"/>
+    <x v="1"/>
     <n v="0.13464229990560039"/>
     <n v="2.8754870215240758E-3"/>
     <n v="0.1345842015523942"/>
@@ -439,7 +442,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="60"/>
+    <x v="1"/>
     <n v="0.1146859341460239"/>
     <n v="2.7194944561234639E-3"/>
     <n v="0.1144406045485279"/>
@@ -456,7 +459,7 @@
   <r>
     <x v="2"/>
     <x v="3"/>
-    <n v="60"/>
+    <x v="1"/>
     <n v="9.1649714067039492E-2"/>
     <n v="2.6923962932912421E-3"/>
     <n v="9.3170610538651694E-2"/>
@@ -474,7 +477,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B02627E2-884A-4189-BA2F-C61227D09E92}" name="PivotTable4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B02627E2-884A-4189-BA2F-C61227D09E92}" name="PivotTable4" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisCol" showAll="0">
@@ -623,7 +626,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D10B1943-C084-4F3D-9285-8A2ACBDCF707}" name="PivotTable5" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D10B1943-C084-4F3D-9285-8A2ACBDCF707}" name="PivotTable5" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisCol" showAll="0">
@@ -772,7 +775,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C484294C-2E50-4F27-A280-3923FAA1A852}" name="PivotTable6" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C484294C-2E50-4F27-A280-3923FAA1A852}" name="PivotTable6" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisCol" showAll="0">
@@ -792,7 +795,13 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1244,7 +1253,7 @@
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A4" sqref="A4:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1410,7 +1419,7 @@
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1576,7 +1585,7 @@
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1745,6 +1754,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">

--- a/report/ml_perform_crossval_agg_samp_2022-11-24.xlsx
+++ b/report/ml_perform_crossval_agg_samp_2022-11-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.rahmadi\Documents\Git_code\AdamThesis\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8635B671-1B85-4A79-8005-EF5959E52548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE18B1AE-CF0F-4372-BC8F-25E083625621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,10 +18,23 @@
     <sheet name="Pearson" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="24" r:id="rId5"/>
+    <pivotCache cacheId="43" r:id="rId5"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -477,7 +490,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B02627E2-884A-4189-BA2F-C61227D09E92}" name="PivotTable4" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B02627E2-884A-4189-BA2F-C61227D09E92}" name="PivotTable4" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisCol" showAll="0">
@@ -552,7 +565,7 @@
     <dataField name="Average of avg_mae" fld="3" subtotal="average" baseField="1" baseItem="2"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -560,7 +573,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -592,7 +605,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -600,7 +613,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -626,7 +639,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D10B1943-C084-4F3D-9285-8A2ACBDCF707}" name="PivotTable5" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D10B1943-C084-4F3D-9285-8A2ACBDCF707}" name="PivotTable5" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisCol" showAll="0">
@@ -701,7 +714,7 @@
     <dataField name="Average of avg_mse" fld="7" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -709,7 +722,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -741,7 +754,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -749,7 +762,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -775,7 +788,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C484294C-2E50-4F27-A280-3923FAA1A852}" name="PivotTable6" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C484294C-2E50-4F27-A280-3923FAA1A852}" name="PivotTable6" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisCol" showAll="0">
@@ -856,7 +869,7 @@
     <dataField name="Average of avg_pearson" fld="11" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -864,7 +877,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -896,7 +909,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -904,7 +917,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -1253,7 +1266,7 @@
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D8"/>
+      <selection activeCell="B5" sqref="B5:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1419,7 +1432,7 @@
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D8"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1585,7 +1598,7 @@
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
